--- a/Account List.xlsx
+++ b/Account List.xlsx
@@ -1592,7 +1592,12 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="591914cf-a39a-4f97-b936-96d82b104b22">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -1606,8 +1611,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100712E95AC16D4DE4A89A704F5C965A8DB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4fe509b729c1b5821c2891ddb379349f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="591914cf-a39a-4f97-b936-96d82b104b22" xmlns:ns3="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="429586b50d9dd923429e75647a611e6e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100712E95AC16D4DE4A89A704F5C965A8DB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8cfab8489d06fda56a0567b8302527c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="591914cf-a39a-4f97-b936-96d82b104b22" xmlns:ns3="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0223c42be8b5d9c5089d1ec96ec023bb" ns2:_="" ns3:_="">
     <xsd:import namespace="591914cf-a39a-4f97-b936-96d82b104b22"/>
     <xsd:import namespace="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa"/>
     <xsd:element name="properties">
@@ -1626,6 +1631,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1680,6 +1687,13 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9b43d249-83c8-4369-919a-03d203e7f474" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1709,6 +1723,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{675af532-0524-4b31-b296-edf1bbd7932f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1828,20 +1853,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B2E3815-2801-4DF0-BA0D-0DA6D1ADE230}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="591914cf-a39a-4f97-b936-96d82b104b22"/>
-    <ds:schemaRef ds:uri="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{782C1B95-73AF-4A5D-A255-D3F35AD506A5}"/>
 </file>
--- a/Account List.xlsx
+++ b/Account List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikok\Downloads\Account Specific Scenario Building_03292023\Account Specific Scenario Building_03292023 - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\less-account-scenario-building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E803B4-C668-4287-B18E-F959D44FB022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2036842-F61F-4CB9-B6EC-806D8B2D515E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA83EF08-40D3-4B2B-8586-949067763C46}"/>
+    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" xr2:uid="{AA83EF08-40D3-4B2B-8586-949067763C46}"/>
   </bookViews>
   <sheets>
     <sheet name="Selected Accounts" sheetId="1" r:id="rId1"/>
@@ -600,19 +600,19 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>81384</v>
       </c>
@@ -647,7 +647,7 @@
         <v>C:\Volley\Batch Process\Baseline - Taylor Farms Retail\</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>81399</v>
       </c>
@@ -665,7 +665,7 @@
         <v>C:\Volley\Batch Process\Baseline - International Paper (IBS Taylor Farms Retail)\</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>85557</v>
       </c>
@@ -683,7 +683,7 @@
         <v>C:\Volley\Batch Process\Baseline - Rose Acre Farms\</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>81377</v>
       </c>
@@ -701,7 +701,7 @@
         <v>C:\Volley\Batch Process\Baseline - Cascades Tissue Group (Canada)\</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>15323</v>
       </c>
@@ -719,7 +719,7 @@
         <v>C:\Volley\Batch Process\Baseline - Central Garden &amp; Pet Company\</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>89364</v>
       </c>
@@ -737,7 +737,7 @@
         <v>C:\Volley\Batch Process\Baseline - Absopure Company\</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>16559</v>
       </c>
@@ -755,7 +755,7 @@
         <v>C:\Volley\Batch Process\Baseline - Amcor Flexibles North America\</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>15630</v>
       </c>
@@ -773,7 +773,7 @@
         <v>C:\Volley\Batch Process\Baseline - FXI\</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>14258</v>
       </c>
@@ -791,7 +791,7 @@
         <v>C:\Volley\Batch Process\Baseline - Michigan Sugar Company\</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>80274</v>
       </c>
@@ -809,7 +809,7 @@
         <v>C:\Volley\Batch Process\Baseline - Hoffmaster Group Inc.\</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>86253</v>
       </c>
@@ -827,7 +827,7 @@
         <v>C:\Volley\Batch Process\Baseline - Bridor Inc.\</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>18981</v>
       </c>
@@ -845,7 +845,7 @@
         <v>C:\Volley\Batch Process\Baseline - Simmons Wet Pet Foods\</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>86283</v>
       </c>
@@ -863,7 +863,7 @@
         <v>C:\Volley\Batch Process\Baseline - Basin Gold Cooperative\</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>17088</v>
       </c>
@@ -881,7 +881,7 @@
         <v>C:\Volley\Batch Process\Baseline - GPI\</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15191</v>
       </c>
@@ -889,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -899,7 +899,7 @@
         <v>C:\Volley\Batch Process\Baseline - Ava Company\</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>85759</v>
       </c>
@@ -917,7 +917,7 @@
         <v>C:\Volley\Batch Process\Baseline - Silgan Plastics\</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>81377</v>
       </c>
@@ -935,7 +935,7 @@
         <v>C:\Volley\Batch Process\Baseline - Cascades Tissue Group (Canada)\</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>15323</v>
       </c>
@@ -953,7 +953,7 @@
         <v>C:\Volley\Batch Process\Baseline - Central Garden &amp; Pet Company\</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>15738</v>
       </c>
@@ -971,7 +971,7 @@
         <v>C:\Volley\Batch Process\Baseline - Kraft Heinz Company\</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>14904</v>
       </c>
@@ -989,7 +989,7 @@
         <v>C:\Volley\Batch Process\Baseline - First Quality LLC\</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>14864</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>C:\Volley\Batch Process\Baseline - Fresh Express Incorporated\</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>80293</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>C:\Volley\Batch Process\Baseline - Sofidel America Corp\</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>14867</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>C:\Volley\Batch Process\Baseline - Poly-America, L.P.\</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>82408</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>C:\Volley\Batch Process\Baseline - TreeHouse Foods\</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>80290</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>C:\Volley\Batch Process\Baseline - Mars Wrigley Confectionery\</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>14739</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>C:\Volley\Batch Process\Baseline - Clearwater Paper Corp\</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>81384</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>C:\Volley\Batch Process\Baseline - Taylor Farms Retail\</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>86410</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>C:\Volley\Batch Process\Baseline - Bettaway Pallet Systems Inc\</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>81688</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>C:\Volley\Batch Process\Baseline - Milo's Tea Company, Inc.\</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>80500</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>C:\Volley\Batch Process\Baseline - Kraft Canada\</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>17064</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>C:\Volley\Batch Process\Baseline - Sargento Foods Inc.\</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>15459</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>C:\Volley\Batch Process\Baseline - Frey Produce\</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>88027</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>C:\Volley\Batch Process\Baseline - Bonita Packing Co.\</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>87025</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>C:\Volley\Batch Process\Baseline - Niagara Bottling, LLC\</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>14285</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>C:\Volley\Batch Process\Baseline - Hershey Company\</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>88008</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>C:\Volley\Batch Process\Baseline - Refresco North America\</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>81398</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>C:\Volley\Batch Process\Baseline - Foster Poultry Farms, Inc.\</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>81009</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>C:\Volley\Batch Process\Baseline - Amplify Snack Brands\</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>15470</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>C:\Volley\Batch Process\Baseline - Ferrara Candy Company\</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>14791</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>C:\Volley\Batch Process\Baseline - Aurora Organic Dairy\</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>15282</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>C:\Volley\Batch Process\Baseline - Abbott Nutrition\</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>80308</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>C:\Volley\Batch Process\Baseline - Mars Canada, Inc.\</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>85557</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>C:\Volley\Batch Process\Baseline - Rose Acre Farms\</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>14994</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>C:\Volley\Batch Process\Baseline - Sam's Club (Renter)\</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>15011</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>C:\Volley\Batch Process\Baseline - Cascades Tissue Group\</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>15055</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>C:\Volley\Batch Process\Baseline - Sunshine Mills, Inc.\</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>80327</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>C:\Volley\Batch Process\Baseline - Starkist\</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>15896</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>C:\Volley\Batch Process\Baseline - Karlin Foods Corp\</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>15021</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>C:\Volley\Batch Process\Baseline - WestRock\</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>19680</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>C:\Volley\Batch Process\Baseline - PL Developments Inc.\</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>80590</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>C:\Volley\Batch Process\Baseline - NuCal Foods\</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>17064</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>C:\Volley\Batch Process\Baseline - Sargento Foods Inc\</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>15472</v>
       </c>
@@ -1591,26 +1591,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="591914cf-a39a-4f97-b936-96d82b104b22">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100712E95AC16D4DE4A89A704F5C965A8DB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8cfab8489d06fda56a0567b8302527c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="591914cf-a39a-4f97-b936-96d82b104b22" xmlns:ns3="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0223c42be8b5d9c5089d1ec96ec023bb" ns2:_="" ns3:_="">
     <xsd:import namespace="591914cf-a39a-4f97-b936-96d82b104b22"/>
@@ -1835,11 +1815,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="591914cf-a39a-4f97-b936-96d82b104b22">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0992B787-9EAD-42AB-B7D1-928C1E030C7A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{782C1B95-73AF-4A5D-A255-D3F35AD506A5}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="591914cf-a39a-4f97-b936-96d82b104b22"/>
+    <ds:schemaRef ds:uri="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1853,5 +1863,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{782C1B95-73AF-4A5D-A255-D3F35AD506A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0992B787-9EAD-42AB-B7D1-928C1E030C7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa"/>
+    <ds:schemaRef ds:uri="591914cf-a39a-4f97-b936-96d82b104b22"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Account List.xlsx
+++ b/Account List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbilley\Documents\GitHub\less-account-scenario-building\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdowns\Documents\GitHub\cost-to-serve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1400C6-85F4-4C91-A00C-16A33778A61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67A3338-953A-40BA-BF61-B6EFE549956E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7830" windowWidth="29040" windowHeight="15840" xr2:uid="{AA83EF08-40D3-4B2B-8586-949067763C46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AA83EF08-40D3-4B2B-8586-949067763C46}"/>
   </bookViews>
   <sheets>
     <sheet name="Selected Accounts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
   <si>
     <t>Corporate Code</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Schreiber Foods</t>
+  </si>
+  <si>
+    <t>Unilever</t>
   </si>
 </sst>
 </file>
@@ -229,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,10 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,1124 +582,1034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0C1558-326F-47A1-81FB-9645520C05A6}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>14285</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B2&amp;"\"</f>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E33" si="0">"C:\Volley\Batch Process\Baseline - "&amp;B2&amp;"\"</f>
         <v>C:\Volley\Batch Process\Baseline - Hershey Company\</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>14739</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B3&amp;"\"</f>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Clearwater Paper Corp\</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>14864</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B4&amp;"\"</f>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Fresh Express Incorporated\</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14904</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B5&amp;"\"</f>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - First Quality LLC\</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>14994</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B6&amp;"\"</f>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Sam's Club (Renter)\</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>15011</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B7&amp;"\"</f>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Cascades Tissue Group\</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15738</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B8&amp;"\"</f>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Kraft Heinz Company\</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>80290</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B9&amp;"\"</f>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Mars Wrigley Confectionery\</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>80293</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B10&amp;"\"</f>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Sofidel America Corp\</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80500</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B11&amp;"\"</f>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Kraft Canada\</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>81377</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B12&amp;"\"</f>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Cascades Tissue Group (Canada)\</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>81384</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B13&amp;"\"</f>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Taylor Farms Retail\</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>81398</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B14&amp;"\"</f>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Foster Poultry Farms, Inc.\</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>81688</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B15&amp;"\"</f>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Milo's Tea Company, Inc.\</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>82408</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B16&amp;"\"</f>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - TreeHouse Foods\</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>86410</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B17&amp;"\"</f>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Bettaway Pallet Systems Inc\</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>87025</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B18&amp;"\"</f>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Niagara Bottling, LLC\</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>88008</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B19&amp;"\"</f>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Refresco North America\</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>91572</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B20&amp;"\"</f>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Schreiber Foods\</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>91901</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B21&amp;"\"</f>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Winland Foods INC.\</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>14258</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B22&amp;"\"</f>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Michigan Sugar Company\</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>14791</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B23&amp;"\"</f>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Aurora Organic Dairy\</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>14867</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B24&amp;"\"</f>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Poly-America, L.P.\</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>15021</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B25&amp;"\"</f>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - WestRock\</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>15055</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B26&amp;"\"</f>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Sunshine Mills, Inc.\</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>15191</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B27&amp;"\"</f>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Ava Company\</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>15282</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B28&amp;"\"</f>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Abbott Nutrition\</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>15323</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B29&amp;"\"</f>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Central Garden &amp; Pet Company\</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>15459</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B30&amp;"\"</f>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Frey Produce\</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>15470</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B31&amp;"\"</f>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Ferrara Candy Company\</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>15472</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B32&amp;"\"</f>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - Nonni's Foods LLC\</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>15630</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B33&amp;"\"</f>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
         <v>C:\Volley\Batch Process\Baseline - FXI\</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>15896</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B34&amp;"\"</f>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" ref="E34:E52" si="1">"C:\Volley\Batch Process\Baseline - "&amp;B34&amp;"\"</f>
         <v>C:\Volley\Batch Process\Baseline - Karlin Foods Corp\</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>16559</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B35&amp;"\"</f>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Amcor Flexibles North America\</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>17064</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B36&amp;"\"</f>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Sargento Foods Inc.\</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>17064</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B37&amp;"\"</f>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Sargento Foods Inc\</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>17088</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B38&amp;"\"</f>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - GPI\</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>18981</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B39&amp;"\"</f>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Simmons Wet Pet Foods\</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>19680</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B40&amp;"\"</f>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - PL Developments Inc.\</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>80274</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B41&amp;"\"</f>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Hoffmaster Group Inc.\</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>80308</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B42&amp;"\"</f>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Mars Canada, Inc.\</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>80327</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B43&amp;"\"</f>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Starkist\</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>80590</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B44&amp;"\"</f>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - NuCal Foods\</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>81009</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B45&amp;"\"</f>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Amplify Snack Brands\</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>81399</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B46&amp;"\"</f>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - International Paper (IBS Taylor Farms Retail)\</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>85557</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B47&amp;"\"</f>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Rose Acre Farms\</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>85759</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B48&amp;"\"</f>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Silgan Plastics\</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>86253</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B49&amp;"\"</f>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Bridor Inc.\</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>86283</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B50&amp;"\"</f>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Basin Gold Cooperative\</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>88027</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B51&amp;"\"</f>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Bonita Packing Co.\</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>89364</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f>"C:\Volley\Batch Process\Baseline - "&amp;B52&amp;"\"</f>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
         <v>C:\Volley\Batch Process\Baseline - Absopure Company\</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>90149</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" ref="E53" si="2">"C:\Volley\Batch Process\Baseline - "&amp;B53&amp;"\"</f>
+        <v>C:\Volley\Batch Process\Baseline - Unilever\</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E52" xr:uid="{4C0C1558-326F-47A1-81FB-9645520C05A6}">
@@ -1928,6 +1848,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="ea6a3f86-aacc-4bd9-9d93-6073f0d5c8fa" xsi:nil="true"/>
@@ -1936,15 +1865,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1967,6 +1887,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6305E83-964A-4D70-9522-6AABABF3536D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0992B787-9EAD-42AB-B7D1-928C1E030C7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1975,12 +1903,4 @@
     <ds:schemaRef ds:uri="591914cf-a39a-4f97-b936-96d82b104b22"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6305E83-964A-4D70-9522-6AABABF3536D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>